--- a/Simulated/Activation/33MevTa/ETA/33MeVEtaFoils.xlsx
+++ b/Simulated/Activation/33MevTa/ETA/33MeVEtaFoils.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Radius [cm]</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Al</t>
+  </si>
+  <si>
+    <t>115In(n,2n)</t>
+  </si>
+  <si>
+    <t>In114</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,22 +622,22 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9">
-        <v>909.15</v>
-      </c>
-      <c r="E2" s="9">
-        <v>99.04</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.01</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="16">
+        <v>843.76</v>
+      </c>
+      <c r="E2" s="16">
+        <v>71.8</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G2" s="16">
         <v>1</v>
@@ -639,11 +645,11 @@
       <c r="H2" s="10">
         <v>4970000000</v>
       </c>
-      <c r="I2" s="11">
-        <v>9.1905099999999994E-8</v>
-      </c>
-      <c r="J2" s="11">
-        <v>5.1999999999999998E-3</v>
+      <c r="I2" s="17">
+        <v>6.0031700000000001E-8</v>
+      </c>
+      <c r="J2" s="17">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K2" s="9">
         <v>2.5</v>
@@ -652,45 +658,45 @@
         <v>0.1</v>
       </c>
       <c r="M2" s="9">
-        <v>6.49</v>
+        <v>2.7</v>
       </c>
       <c r="N2" s="9">
-        <v>91.224000000000004</v>
+        <v>26.9815</v>
       </c>
       <c r="O2" s="12">
-        <v>0.51449999999999996</v>
+        <v>1</v>
       </c>
       <c r="P2" s="13">
-        <f t="shared" ref="P2:P10" si="0">3.141592654*K2^2*L2</f>
+        <f>3.141592654*K2^2*L2</f>
         <v>1.9634954087500001</v>
       </c>
       <c r="Q2" s="14">
-        <f>78.41*3600</f>
-        <v>282276</v>
+        <f>9.458*60</f>
+        <v>567.48</v>
       </c>
       <c r="R2" s="15">
-        <f t="shared" ref="R2:R10" si="1">0.6931471806/Q2</f>
-        <v>2.4555654061981891E-6</v>
+        <f>0.6931471806/Q2</f>
+        <v>1.221447770141679E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="16">
-        <v>1378</v>
+        <v>1368.63</v>
       </c>
       <c r="E3" s="16">
-        <v>81.7</v>
+        <v>99.99</v>
       </c>
       <c r="F3" s="16">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G3" s="16">
         <v>1</v>
@@ -699,10 +705,10 @@
         <v>4970000000</v>
       </c>
       <c r="I3" s="17">
-        <v>1.5096799999999999E-8</v>
+        <v>5.4239099999999999E-8</v>
       </c>
       <c r="J3" s="17">
-        <v>5.7000000000000002E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="K3" s="9">
         <v>2.5</v>
@@ -710,45 +716,45 @@
       <c r="L3" s="9">
         <v>0.1</v>
       </c>
-      <c r="M3" s="13">
-        <v>8.9079999999999995</v>
-      </c>
-      <c r="N3" s="13">
-        <v>58.693399999999997</v>
-      </c>
-      <c r="O3" s="18">
-        <v>0.68076899999999996</v>
+      <c r="M3" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="N3" s="9">
+        <v>26.9815</v>
+      </c>
+      <c r="O3" s="12">
+        <v>1</v>
       </c>
       <c r="P3" s="13">
-        <f t="shared" si="0"/>
+        <f>3.141592654*K3^2*L3</f>
         <v>1.9634954087500001</v>
       </c>
-      <c r="Q3" s="19">
-        <f>35.6*3600</f>
-        <v>128160</v>
+      <c r="Q3" s="14">
+        <f>15*3600</f>
+        <v>54000</v>
       </c>
       <c r="R3" s="15">
-        <f t="shared" si="1"/>
-        <v>5.4084517837078655E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>0.6931471806/Q3</f>
+        <v>1.28360589E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="16">
-        <v>810.76</v>
-      </c>
-      <c r="E4" s="16">
-        <v>99.45</v>
-      </c>
-      <c r="F4" s="16">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9">
+        <v>336.24099999999999</v>
+      </c>
+      <c r="E4" s="9">
+        <v>45.8</v>
+      </c>
+      <c r="F4" s="9">
         <v>0.01</v>
       </c>
       <c r="G4" s="16">
@@ -757,11 +763,11 @@
       <c r="H4" s="10">
         <v>4970000000</v>
       </c>
-      <c r="I4" s="17">
-        <v>5.2731699999999996E-7</v>
+      <c r="I4" s="11">
+        <v>2.3491200000000001E-7</v>
       </c>
       <c r="J4" s="17">
-        <v>2.5999999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="K4" s="9">
         <v>2.5</v>
@@ -769,26 +775,26 @@
       <c r="L4" s="9">
         <v>0.1</v>
       </c>
-      <c r="M4" s="8">
-        <v>8.9079999999999995</v>
-      </c>
-      <c r="N4" s="13">
-        <v>58.693399999999997</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0.68076899999999996</v>
+      <c r="M4" s="9">
+        <v>7.31</v>
+      </c>
+      <c r="N4" s="9">
+        <v>114.818</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.95709999999999995</v>
       </c>
       <c r="P4" s="13">
-        <f t="shared" si="0"/>
+        <f>3.141592654*K4^2*L4</f>
         <v>1.9634954087500001</v>
       </c>
-      <c r="Q4" s="19">
-        <f>70.86*24*3600</f>
-        <v>6122304</v>
+      <c r="Q4" s="14">
+        <f>4.5*3600</f>
+        <v>16200</v>
       </c>
       <c r="R4" s="15">
-        <f t="shared" si="1"/>
-        <v>1.1321672046994073E-7</v>
+        <f>0.6931471806/Q4</f>
+        <v>4.2786863000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -796,16 +802,16 @@
         <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9">
-        <v>336.24099999999999</v>
+        <v>1293.56</v>
       </c>
       <c r="E5" s="9">
-        <v>45.8</v>
+        <v>84.8</v>
       </c>
       <c r="F5" s="9">
         <v>0.01</v>
@@ -817,10 +823,10 @@
         <v>4970000000</v>
       </c>
       <c r="I5" s="11">
-        <v>2.3491200000000001E-7</v>
-      </c>
-      <c r="J5" s="17">
-        <v>2.0999999999999999E-3</v>
+        <v>2.00192E-7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1.9E-3</v>
       </c>
       <c r="K5" s="9">
         <v>2.5</v>
@@ -838,75 +844,75 @@
         <v>0.95709999999999995</v>
       </c>
       <c r="P5" s="13">
-        <f t="shared" si="0"/>
+        <f>3.141592654*K5^2*L5</f>
         <v>1.9634954087500001</v>
       </c>
       <c r="Q5" s="14">
-        <f>4.5*3600</f>
-        <v>16200</v>
+        <f>54.12*60</f>
+        <v>3247.2</v>
       </c>
       <c r="R5" s="15">
-        <f t="shared" si="1"/>
-        <v>4.2786863000000001E-5</v>
+        <f>0.6931471806/Q5</f>
+        <v>2.134599595343681E-4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D6" s="9">
-        <v>1293.56</v>
+        <v>355.7</v>
       </c>
       <c r="E6" s="9">
-        <v>84.8</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="F6" s="9">
         <v>0.01</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="10">
         <v>4970000000</v>
       </c>
       <c r="I6" s="11">
-        <v>2.00192E-7</v>
+        <v>7.8144500000000002E-7</v>
       </c>
       <c r="J6" s="11">
-        <v>1.9E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="K6" s="9">
         <v>2.5</v>
       </c>
       <c r="L6" s="9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M6" s="9">
-        <v>7.31</v>
+        <v>19.32</v>
       </c>
       <c r="N6" s="9">
-        <v>114.818</v>
+        <v>196.9666</v>
       </c>
       <c r="O6" s="12">
-        <v>0.95709999999999995</v>
+        <v>1</v>
       </c>
       <c r="P6" s="13">
-        <f t="shared" si="0"/>
-        <v>1.9634954087500001</v>
+        <f t="shared" ref="P6:P7" si="0">3.141592654*K6^2*L6</f>
+        <v>0.19634954087500001</v>
       </c>
       <c r="Q6" s="14">
-        <f>54.12*60</f>
-        <v>3247.2</v>
+        <f>6.17*24*3600</f>
+        <v>533088</v>
       </c>
       <c r="R6" s="15">
-        <f t="shared" si="1"/>
-        <v>2.134599595343681E-4</v>
+        <f t="shared" ref="R6:R7" si="1">0.6931471806/Q6</f>
+        <v>1.3002490782009725E-6</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -914,16 +920,16 @@
         <v>39</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="9">
-        <v>355.7</v>
+        <v>411.8</v>
       </c>
       <c r="E7" s="9">
-        <v>80.900000000000006</v>
+        <v>95.62</v>
       </c>
       <c r="F7" s="9">
         <v>0.01</v>
@@ -935,10 +941,10 @@
         <v>4970000000</v>
       </c>
       <c r="I7" s="11">
-        <v>7.8144500000000002E-7</v>
+        <v>2.35113E-7</v>
       </c>
       <c r="J7" s="11">
-        <v>3.8999999999999998E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="K7" s="9">
         <v>2.5</v>
@@ -956,95 +962,95 @@
         <v>1</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" ref="P7:P8" si="2">3.141592654*K7^2*L7</f>
+        <f t="shared" si="0"/>
         <v>0.19634954087500001</v>
       </c>
       <c r="Q7" s="14">
-        <f>6.17*24*3600</f>
-        <v>533088</v>
+        <f>2.695*24*3600</f>
+        <v>232847.99999999997</v>
       </c>
       <c r="R7" s="15">
-        <f t="shared" ref="R7:R8" si="3">0.6931471806/Q7</f>
-        <v>1.3002490782009725E-6</v>
+        <f t="shared" si="1"/>
+        <v>2.9768225649350652E-6</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9">
-        <v>411.8</v>
-      </c>
-      <c r="E8" s="9">
-        <v>95.62</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="G8" s="9">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1377.63</v>
+      </c>
+      <c r="E8" s="16">
+        <v>81.7</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="10">
         <v>4970000000</v>
       </c>
-      <c r="I8" s="11">
-        <v>2.35113E-7</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1.9E-3</v>
+      <c r="I8" s="17">
+        <v>1.5096799999999999E-8</v>
+      </c>
+      <c r="J8" s="17">
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="K8" s="9">
         <v>2.5</v>
       </c>
       <c r="L8" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="13">
+        <v>8.9079999999999995</v>
+      </c>
+      <c r="N8" s="13">
+        <v>58.693399999999997</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0.68076899999999996</v>
+      </c>
+      <c r="P8" s="13">
+        <f>3.141592654*K8^2*L8</f>
+        <v>1.9634954087500001</v>
+      </c>
+      <c r="Q8" s="19">
+        <f>35.6*3600</f>
+        <v>128160</v>
+      </c>
+      <c r="R8" s="15">
+        <f>0.6931471806/Q8</f>
+        <v>5.4084517837078655E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="16">
+        <v>810.76</v>
+      </c>
+      <c r="E9" s="16">
+        <v>99.45</v>
+      </c>
+      <c r="F9" s="16">
         <v>0.01</v>
-      </c>
-      <c r="M8" s="9">
-        <v>19.32</v>
-      </c>
-      <c r="N8" s="9">
-        <v>196.9666</v>
-      </c>
-      <c r="O8" s="12">
-        <v>1</v>
-      </c>
-      <c r="P8" s="13">
-        <f t="shared" si="2"/>
-        <v>0.19634954087500001</v>
-      </c>
-      <c r="Q8" s="14">
-        <f>2.695*24*3600</f>
-        <v>232847.99999999997</v>
-      </c>
-      <c r="R8" s="15">
-        <f t="shared" si="3"/>
-        <v>2.9768225649350652E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="16">
-        <v>843.76</v>
-      </c>
-      <c r="E9" s="16">
-        <v>71.8</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G9" s="16">
         <v>1</v>
@@ -1053,10 +1059,10 @@
         <v>4970000000</v>
       </c>
       <c r="I9" s="17">
-        <v>6.0031700000000001E-8</v>
+        <v>5.2731699999999996E-7</v>
       </c>
       <c r="J9" s="17">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="K9" s="9">
         <v>2.5</v>
@@ -1064,45 +1070,45 @@
       <c r="L9" s="9">
         <v>0.1</v>
       </c>
-      <c r="M9" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="N9" s="9">
-        <v>26.9815</v>
-      </c>
-      <c r="O9" s="12">
-        <v>1</v>
+      <c r="M9" s="8">
+        <v>8.9079999999999995</v>
+      </c>
+      <c r="N9" s="13">
+        <v>58.693399999999997</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0.68076899999999996</v>
       </c>
       <c r="P9" s="13">
-        <f t="shared" si="0"/>
+        <f>3.141592654*K9^2*L9</f>
         <v>1.9634954087500001</v>
       </c>
-      <c r="Q9" s="14">
-        <f>9.458*60</f>
-        <v>567.48</v>
+      <c r="Q9" s="19">
+        <f>70.86*24*3600</f>
+        <v>6122304</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
-        <v>1.221447770141679E-3</v>
+        <f>0.6931471806/Q9</f>
+        <v>1.1321672046994073E-7</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1368.63</v>
-      </c>
-      <c r="E10" s="16">
-        <v>99.99</v>
-      </c>
-      <c r="F10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>909.15</v>
+      </c>
+      <c r="E10" s="9">
+        <v>99.04</v>
+      </c>
+      <c r="F10" s="9">
         <v>0.01</v>
       </c>
       <c r="G10" s="16">
@@ -1111,11 +1117,11 @@
       <c r="H10" s="10">
         <v>4970000000</v>
       </c>
-      <c r="I10" s="17">
-        <v>5.4239099999999999E-8</v>
-      </c>
-      <c r="J10" s="17">
-        <v>3.5000000000000001E-3</v>
+      <c r="I10" s="11">
+        <v>9.1905099999999994E-8</v>
+      </c>
+      <c r="J10" s="11">
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="K10" s="9">
         <v>2.5</v>
@@ -1124,25 +1130,25 @@
         <v>0.1</v>
       </c>
       <c r="M10" s="9">
-        <v>2.7</v>
+        <v>6.49</v>
       </c>
       <c r="N10" s="9">
-        <v>26.9815</v>
+        <v>91.224000000000004</v>
       </c>
       <c r="O10" s="12">
-        <v>1</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="P10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P10" si="2">3.141592654*K10^2*L10</f>
         <v>1.9634954087500001</v>
       </c>
       <c r="Q10" s="14">
-        <f>15*3600</f>
-        <v>54000</v>
+        <f>78.41*3600</f>
+        <v>282276</v>
       </c>
       <c r="R10" s="15">
-        <f t="shared" si="1"/>
-        <v>1.28360589E-5</v>
+        <f t="shared" ref="R10" si="3">0.6931471806/Q10</f>
+        <v>2.4555654061981891E-6</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1253,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,7 +1385,7 @@
         <v>0.51449999999999996</v>
       </c>
       <c r="P2" s="13">
-        <f t="shared" ref="P2:P10" si="0">3.141592654*K2^2*L2</f>
+        <f t="shared" ref="P2:P11" si="0">3.141592654*K2^2*L2</f>
         <v>1.9634954087500001</v>
       </c>
       <c r="Q2" s="14">
@@ -1387,7 +1393,7 @@
         <v>282276</v>
       </c>
       <c r="R2" s="15">
-        <f t="shared" ref="R2:R10" si="1">0.6931471806/Q2</f>
+        <f t="shared" ref="R2:R11" si="1">0.6931471806/Q2</f>
         <v>2.4555654061981891E-6</v>
       </c>
     </row>
@@ -1402,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="16">
-        <v>1378</v>
+        <v>1377.63</v>
       </c>
       <c r="E3" s="16">
         <v>81.7</v>
@@ -1629,61 +1635,57 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9">
-        <v>355.7</v>
+        <v>190.27</v>
       </c>
       <c r="E7" s="9">
-        <v>80.900000000000006</v>
+        <v>15.56</v>
       </c>
       <c r="F7" s="9">
         <v>0.01</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="16">
         <v>1</v>
       </c>
       <c r="H7" s="10">
         <v>4970000000</v>
       </c>
-      <c r="I7" s="11">
-        <v>7.8144500000000002E-7</v>
-      </c>
-      <c r="J7" s="11">
-        <v>3.8999999999999998E-3</v>
-      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="9">
         <v>2.5</v>
       </c>
       <c r="L7" s="9">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="9">
-        <v>19.32</v>
+        <v>7.31</v>
       </c>
       <c r="N7" s="9">
-        <v>196.9666</v>
+        <v>114.818</v>
       </c>
       <c r="O7" s="12">
-        <v>1</v>
+        <v>0.95709999999999995</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" si="0"/>
-        <v>0.19634954087500001</v>
+        <f t="shared" ref="P7" si="2">3.141592654*K7^2*L7</f>
+        <v>1.9634954087500001</v>
       </c>
       <c r="Q7" s="14">
-        <f>6.17*24*3600</f>
-        <v>533088</v>
+        <f>49.51*3600*24</f>
+        <v>4277664</v>
       </c>
       <c r="R7" s="15">
         <f t="shared" si="1"/>
-        <v>1.3002490782009725E-6</v>
+        <v>1.6203871566350233E-7</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1691,16 +1693,16 @@
         <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9">
-        <v>411.8</v>
+        <v>355.7</v>
       </c>
       <c r="E8" s="9">
-        <v>95.62</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="F8" s="9">
         <v>0.01</v>
@@ -1712,10 +1714,10 @@
         <v>4970000000</v>
       </c>
       <c r="I8" s="11">
-        <v>2.35113E-7</v>
+        <v>7.8144500000000002E-7</v>
       </c>
       <c r="J8" s="11">
-        <v>1.9E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="K8" s="9">
         <v>2.5</v>
@@ -1737,71 +1739,71 @@
         <v>0.19634954087500001</v>
       </c>
       <c r="Q8" s="14">
+        <f>6.17*24*3600</f>
+        <v>533088</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.3002490782009725E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>411.8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>95.62</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4970000000</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.35113E-7</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1.9E-3</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="M9" s="9">
+        <v>19.32</v>
+      </c>
+      <c r="N9" s="9">
+        <v>196.9666</v>
+      </c>
+      <c r="O9" s="12">
+        <v>1</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19634954087500001</v>
+      </c>
+      <c r="Q9" s="14">
         <f>2.695*24*3600</f>
         <v>232847.99999999997</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R9" s="15">
         <f t="shared" si="1"/>
         <v>2.9768225649350652E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="16">
-        <v>843.76</v>
-      </c>
-      <c r="E9" s="16">
-        <v>71.8</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
-        <v>4970000000</v>
-      </c>
-      <c r="I9" s="17">
-        <v>6.0031700000000001E-8</v>
-      </c>
-      <c r="J9" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="M9" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="N9" s="9">
-        <v>26.9815</v>
-      </c>
-      <c r="O9" s="12">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13">
-        <f t="shared" si="0"/>
-        <v>1.9634954087500001</v>
-      </c>
-      <c r="Q9" s="14">
-        <f>9.458*60</f>
-        <v>567.48</v>
-      </c>
-      <c r="R9" s="15">
-        <f t="shared" si="1"/>
-        <v>1.221447770141679E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1809,19 +1811,19 @@
         <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="16">
-        <v>1368.63</v>
+        <v>1014.52</v>
       </c>
       <c r="E10" s="16">
-        <v>99.99</v>
+        <v>28.2</v>
       </c>
       <c r="F10" s="16">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G10" s="16">
         <v>1</v>
@@ -1830,10 +1832,10 @@
         <v>4970000000</v>
       </c>
       <c r="I10" s="17">
-        <v>5.4239099999999999E-8</v>
+        <v>6.0031700000000001E-8</v>
       </c>
       <c r="J10" s="17">
-        <v>3.5000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K10" s="9">
         <v>2.5</v>
@@ -1855,17 +1857,72 @@
         <v>1.9634954087500001</v>
       </c>
       <c r="Q10" s="14">
+        <f>9.458*60</f>
+        <v>567.48</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" si="1"/>
+        <v>1.221447770141679E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1368.63</v>
+      </c>
+      <c r="E11" s="16">
+        <v>99.99</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4970000000</v>
+      </c>
+      <c r="I11" s="17">
+        <v>5.4239099999999999E-8</v>
+      </c>
+      <c r="J11" s="17">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="N11" s="9">
+        <v>26.9815</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9634954087500001</v>
+      </c>
+      <c r="Q11" s="14">
         <f>15*3600</f>
         <v>54000</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R11" s="15">
         <f t="shared" si="1"/>
         <v>1.28360589E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I12" s="2"/>
@@ -1962,6 +2019,10 @@
     <row r="35" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Simulated/Activation/33MevTa/ETA/33MeVEtaFoils.xlsx
+++ b/Simulated/Activation/33MevTa/ETA/33MeVEtaFoils.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="10">
-        <v>4970000000</v>
+        <v>5720000000</v>
       </c>
       <c r="I2" s="17">
         <v>6.0031700000000001E-8</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="10">
-        <v>4970000000</v>
+        <v>5720000000</v>
       </c>
       <c r="I3" s="17">
         <v>5.4239099999999999E-8</v>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="10">
-        <v>4970000000</v>
+        <v>5720000000</v>
       </c>
       <c r="I4" s="11">
         <v>2.3491200000000001E-7</v>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="10">
-        <v>4970000000</v>
+        <v>5720000000</v>
       </c>
       <c r="I5" s="11">
         <v>2.00192E-7</v>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="10">
-        <v>4970000000</v>
+        <v>5720000000</v>
       </c>
       <c r="I6" s="11">
         <v>7.8144500000000002E-7</v>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="10">
-        <v>4970000000</v>
+        <v>5720000000</v>
       </c>
       <c r="I7" s="11">
         <v>2.35113E-7</v>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="10">
-        <v>4970000000</v>
+        <v>5720000000</v>
       </c>
       <c r="I8" s="17">
         <v>1.5096799999999999E-8</v>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="10">
-        <v>4970000000</v>
+        <v>5720000000</v>
       </c>
       <c r="I9" s="17">
         <v>5.2731699999999996E-7</v>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="10">
-        <v>4970000000</v>
+        <v>5720000000</v>
       </c>
       <c r="I10" s="11">
         <v>9.1905099999999994E-8</v>
